--- a/Langfuse_Tracking_Consolidated_Plan.xlsx
+++ b/Langfuse_Tracking_Consolidated_Plan.xlsx
@@ -8,21 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Proj Docs\langfuse integration\PLAN\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57C7A6B0-1484-47C7-927E-0BDB8DB31A99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AAF480E3-8415-48B0-B7A0-22A560A6E1D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="696" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" tabRatio="696" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Phase 1 Tasks" sheetId="2" r:id="rId1"/>
-    <sheet name="Phase 2 Tasks" sheetId="3" r:id="rId2"/>
-    <sheet name="Phase 3 Tasks" sheetId="4" r:id="rId3"/>
-    <sheet name="Phase 4 Tasks" sheetId="5" r:id="rId4"/>
-    <sheet name="Phase 5 Tasks" sheetId="6" r:id="rId5"/>
-    <sheet name="Phase 6 Tasks" sheetId="7" r:id="rId6"/>
-    <sheet name="Phase 7 Tasks" sheetId="8" r:id="rId7"/>
-    <sheet name="Phase 8 Tasks" sheetId="9" r:id="rId8"/>
-    <sheet name="Phase 9 Tasks" sheetId="10" r:id="rId9"/>
-    <sheet name="Phase 10 Tasks" sheetId="1" r:id="rId10"/>
+    <sheet name="Sheet1" sheetId="11" r:id="rId1"/>
+    <sheet name="Phase 1 Tasks" sheetId="2" r:id="rId2"/>
+    <sheet name="Phase 2 Tasks" sheetId="3" r:id="rId3"/>
+    <sheet name="Phase 3 Tasks" sheetId="4" r:id="rId4"/>
+    <sheet name="Phase 4 Tasks" sheetId="5" r:id="rId5"/>
+    <sheet name="Phase 5 Tasks" sheetId="6" r:id="rId6"/>
+    <sheet name="Phase 6 Tasks" sheetId="7" r:id="rId7"/>
+    <sheet name="Phase 7 Tasks" sheetId="8" r:id="rId8"/>
+    <sheet name="Phase 8 Tasks" sheetId="9" r:id="rId9"/>
+    <sheet name="Phase 9 Tasks" sheetId="10" r:id="rId10"/>
+    <sheet name="Phase 10 Tasks" sheetId="1" r:id="rId11"/>
   </sheets>
   <calcPr calcId="0"/>
   <extLst>
@@ -34,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="245">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="424" uniqueCount="285">
   <si>
     <t>Phase</t>
   </si>
@@ -988,15 +989,150 @@
 - Expose evaluation &amp; cost data
 - Secure end-points with auth</t>
   </si>
+  <si>
+    <t>Priority Level</t>
+  </si>
+  <si>
+    <t>Delivery Timeline</t>
+  </si>
+  <si>
+    <t>Critical</t>
+  </si>
+  <si>
+    <t>1. Langfuse infra setup</t>
+  </si>
+  <si>
+    <t>Phase 1 – Cloud Setup</t>
+  </si>
+  <si>
+    <t>Before Dec 31</t>
+  </si>
+  <si>
+    <t>2. Instrument GPT-4 calls</t>
+  </si>
+  <si>
+    <t>Phase 2 – LLM Instrumentation</t>
+  </si>
+  <si>
+    <t>3. Basic error handling</t>
+  </si>
+  <si>
+    <t>Phase 2 – Error Handling</t>
+  </si>
+  <si>
+    <t>4. Session tracking</t>
+  </si>
+  <si>
+    <t>Phase 3 – Session ID + Linking</t>
+  </si>
+  <si>
+    <t>5. Cost monitoring</t>
+  </si>
+  <si>
+    <t>Phase 3 – Cost Tracking</t>
+  </si>
+  <si>
+    <t>Important</t>
+  </si>
+  <si>
+    <t>1. Prompt management migration</t>
+  </si>
+  <si>
+    <t>Phase 4 – Prompt Store Setup</t>
+  </si>
+  <si>
+    <t>Try Before Dec 31</t>
+  </si>
+  <si>
+    <t>2. Evaluation datasets</t>
+  </si>
+  <si>
+    <t>Phase 5 – Golden Dataset</t>
+  </si>
+  <si>
+    <t>3. Real-time dashboards</t>
+  </si>
+  <si>
+    <t>Phase 6 – Monitoring</t>
+  </si>
+  <si>
+    <t>4. Basic alerting</t>
+  </si>
+  <si>
+    <t>Phase 6 – Alert Setup</t>
+  </si>
+  <si>
+    <t>5. Data sanitization</t>
+  </si>
+  <si>
+    <t>Phase 7 – PII/PHI Handling</t>
+  </si>
+  <si>
+    <t>Enhancement</t>
+  </si>
+  <si>
+    <t>1. A/B testing</t>
+  </si>
+  <si>
+    <t>Phase 10 – Variant Testing</t>
+  </si>
+  <si>
+    <t>Next Year (2026)</t>
+  </si>
+  <si>
+    <t>2. Advanced evaluators</t>
+  </si>
+  <si>
+    <t>Phase 10 – Custom Evaluators</t>
+  </si>
+  <si>
+    <t>3. Automated reporting</t>
+  </si>
+  <si>
+    <t>Phase 9 – Reporting via API</t>
+  </si>
+  <si>
+    <t>4. Performance optimization</t>
+  </si>
+  <si>
+    <t>Phase 8 – Optimization</t>
+  </si>
+  <si>
+    <t>5. CI/CD integration</t>
+  </si>
+  <si>
+    <t>Phase 9 – quality-gate pipelines</t>
+  </si>
+  <si>
+    <t>Action Items</t>
+  </si>
+  <si>
+    <t>Phase Mapping</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="8" tint="-0.249977111117893"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -1010,7 +1146,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="11">
     <border>
       <left/>
       <right/>
@@ -1018,12 +1154,186 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="15">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -1325,10 +1635,215 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:H10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0F4C333E-7E13-4F78-A792-4F51E528EE1A}">
+  <dimension ref="A1:D16"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="31.7109375" customWidth="1"/>
+    <col min="2" max="2" width="43.28515625" customWidth="1"/>
+    <col min="3" max="3" width="36.140625" customWidth="1"/>
+    <col min="4" max="4" width="39" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="2" t="s">
+        <v>245</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>283</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>284</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>247</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>248</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="6"/>
+      <c r="B3" s="12" t="s">
+        <v>251</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="D3" s="7"/>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="6"/>
+      <c r="B4" s="12" t="s">
+        <v>253</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="D4" s="7"/>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="6"/>
+      <c r="B5" s="12" t="s">
+        <v>255</v>
+      </c>
+      <c r="C5" s="1" t="s">
+        <v>256</v>
+      </c>
+      <c r="D5" s="7"/>
+    </row>
+    <row r="6" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="8"/>
+      <c r="B6" s="13" t="s">
+        <v>257</v>
+      </c>
+      <c r="C6" s="9" t="s">
+        <v>258</v>
+      </c>
+      <c r="D6" s="10"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>259</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>260</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>261</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>262</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="6"/>
+      <c r="B8" s="12" t="s">
+        <v>263</v>
+      </c>
+      <c r="C8" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="D8" s="7"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="6"/>
+      <c r="B9" s="12" t="s">
+        <v>265</v>
+      </c>
+      <c r="C9" s="1" t="s">
+        <v>266</v>
+      </c>
+      <c r="D9" s="7"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="6"/>
+      <c r="B10" s="12" t="s">
+        <v>267</v>
+      </c>
+      <c r="C10" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="D10" s="7"/>
+    </row>
+    <row r="11" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A11" s="8"/>
+      <c r="B11" s="13" t="s">
+        <v>269</v>
+      </c>
+      <c r="C11" s="9" t="s">
+        <v>270</v>
+      </c>
+      <c r="D11" s="10"/>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>272</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>273</v>
+      </c>
+      <c r="D12" s="5" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="6"/>
+      <c r="B13" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="C13" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="D13" s="7"/>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="6"/>
+      <c r="B14" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="C14" s="1" t="s">
+        <v>278</v>
+      </c>
+      <c r="D14" s="7"/>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="6"/>
+      <c r="B15" s="1" t="s">
+        <v>279</v>
+      </c>
+      <c r="C15" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="D15" s="7"/>
+    </row>
+    <row r="16" spans="1:4" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A16" s="8"/>
+      <c r="B16" s="9" t="s">
+        <v>281</v>
+      </c>
+      <c r="C16" s="9" t="s">
+        <v>282</v>
+      </c>
+      <c r="D16" s="10"/>
+    </row>
+  </sheetData>
+  <mergeCells count="6">
+    <mergeCell ref="A2:A6"/>
+    <mergeCell ref="A7:A11"/>
+    <mergeCell ref="A12:A16"/>
+    <mergeCell ref="D2:D6"/>
+    <mergeCell ref="D7:D11"/>
+    <mergeCell ref="D12:D16"/>
+  </mergeCells>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
@@ -1360,76 +1875,76 @@
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="B2" t="s">
-        <v>31</v>
+        <v>224</v>
       </c>
       <c r="C2" t="s">
-        <v>32</v>
+        <v>225</v>
       </c>
       <c r="D2" t="s">
-        <v>33</v>
+        <v>226</v>
       </c>
       <c r="E2">
-        <v>0.5</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>3</v>
+        <v>18</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>227</v>
       </c>
       <c r="C3" t="s">
-        <v>35</v>
+        <v>228</v>
       </c>
       <c r="D3" t="s">
-        <v>36</v>
+        <v>229</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
-        <v>6</v>
+        <v>12</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="B4" t="s">
-        <v>37</v>
+        <v>230</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>231</v>
       </c>
       <c r="D4" t="s">
-        <v>39</v>
+        <v>232</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="B5" t="s">
-        <v>40</v>
+        <v>233</v>
       </c>
       <c r="C5" t="s">
-        <v>41</v>
+        <v>234</v>
       </c>
       <c r="D5" t="s">
-        <v>42</v>
+        <v>235</v>
       </c>
       <c r="E5">
         <v>2</v>
@@ -1440,36 +1955,36 @@
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="B6" t="s">
-        <v>43</v>
+        <v>236</v>
       </c>
       <c r="C6" t="s">
-        <v>44</v>
+        <v>237</v>
       </c>
       <c r="D6" t="s">
-        <v>45</v>
+        <v>238</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F6">
-        <v>12</v>
+        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>239</v>
       </c>
       <c r="C7" t="s">
-        <v>47</v>
+        <v>240</v>
       </c>
       <c r="D7" t="s">
-        <v>48</v>
+        <v>241</v>
       </c>
       <c r="E7">
         <v>2</v>
@@ -1480,62 +1995,22 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>30</v>
+        <v>223</v>
       </c>
       <c r="B8" t="s">
-        <v>49</v>
+        <v>242</v>
       </c>
       <c r="C8" t="s">
-        <v>50</v>
+        <v>243</v>
       </c>
       <c r="D8" t="s">
-        <v>51</v>
+        <v>244</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>30</v>
-      </c>
-      <c r="B9" t="s">
-        <v>52</v>
-      </c>
-      <c r="C9" t="s">
-        <v>53</v>
-      </c>
-      <c r="D9" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9">
-        <v>2</v>
-      </c>
-      <c r="F9">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>30</v>
-      </c>
-      <c r="B10" t="s">
-        <v>55</v>
-      </c>
-      <c r="C10" t="s">
-        <v>56</v>
-      </c>
-      <c r="D10" t="s">
-        <v>57</v>
-      </c>
-      <c r="E10">
-        <v>1</v>
-      </c>
-      <c r="F10">
-        <v>6</v>
+        <v>18</v>
       </c>
     </row>
   </sheetData>
@@ -1543,7 +2018,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -1723,6 +2198,235 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+  <dimension ref="A1:H10"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="9.140625" style="14"/>
+    <col min="2" max="2" width="17.42578125" style="14" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.7109375" style="14" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="98.85546875" style="14" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.5703125" style="14" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="14" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A1" s="14" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="14" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="14" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="14" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="14" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B2" s="14" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="14" t="s">
+        <v>32</v>
+      </c>
+      <c r="D2" s="14" t="s">
+        <v>33</v>
+      </c>
+      <c r="E2" s="14">
+        <v>0.5</v>
+      </c>
+      <c r="F2" s="14">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B3" s="14" t="s">
+        <v>34</v>
+      </c>
+      <c r="C3" s="14" t="s">
+        <v>35</v>
+      </c>
+      <c r="D3" s="14" t="s">
+        <v>36</v>
+      </c>
+      <c r="E3" s="14">
+        <v>1</v>
+      </c>
+      <c r="F3" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B4" s="14" t="s">
+        <v>37</v>
+      </c>
+      <c r="C4" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="D4" s="14" t="s">
+        <v>39</v>
+      </c>
+      <c r="E4" s="14">
+        <v>1</v>
+      </c>
+      <c r="F4" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5" s="14" t="s">
+        <v>40</v>
+      </c>
+      <c r="C5" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="D5" s="14" t="s">
+        <v>42</v>
+      </c>
+      <c r="E5" s="14">
+        <v>2</v>
+      </c>
+      <c r="F5" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="14" t="s">
+        <v>43</v>
+      </c>
+      <c r="C6" s="14" t="s">
+        <v>44</v>
+      </c>
+      <c r="D6" s="14" t="s">
+        <v>45</v>
+      </c>
+      <c r="E6" s="14">
+        <v>2</v>
+      </c>
+      <c r="F6" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B7" s="14" t="s">
+        <v>46</v>
+      </c>
+      <c r="C7" s="14" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="14" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="14">
+        <v>2</v>
+      </c>
+      <c r="F7" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B8" s="14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" s="14" t="s">
+        <v>50</v>
+      </c>
+      <c r="D8" s="14" t="s">
+        <v>51</v>
+      </c>
+      <c r="E8" s="14">
+        <v>1</v>
+      </c>
+      <c r="F8" s="14">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A9" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B9" s="14" t="s">
+        <v>52</v>
+      </c>
+      <c r="C9" s="14" t="s">
+        <v>53</v>
+      </c>
+      <c r="D9" s="14" t="s">
+        <v>54</v>
+      </c>
+      <c r="E9" s="14">
+        <v>2</v>
+      </c>
+      <c r="F9" s="14">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="B10" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="C10" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="D10" s="14" t="s">
+        <v>57</v>
+      </c>
+      <c r="E10" s="14">
+        <v>1</v>
+      </c>
+      <c r="F10" s="14">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:H7"/>
   <sheetViews>
@@ -1881,7 +2585,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:H8"/>
   <sheetViews>
@@ -2060,7 +2764,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -2259,7 +2963,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0500-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -2458,7 +3162,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0600-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -2657,7 +3361,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0700-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -2856,7 +3560,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0800-000000000000}">
   <dimension ref="A1:H9"/>
   <sheetViews>
@@ -3053,183 +3757,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0900-000000000000}">
-  <dimension ref="A1:H8"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>223</v>
-      </c>
-      <c r="B2" t="s">
-        <v>224</v>
-      </c>
-      <c r="C2" t="s">
-        <v>225</v>
-      </c>
-      <c r="D2" t="s">
-        <v>226</v>
-      </c>
-      <c r="E2">
-        <v>3</v>
-      </c>
-      <c r="F2">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>223</v>
-      </c>
-      <c r="B3" t="s">
-        <v>227</v>
-      </c>
-      <c r="C3" t="s">
-        <v>228</v>
-      </c>
-      <c r="D3" t="s">
-        <v>229</v>
-      </c>
-      <c r="E3">
-        <v>2</v>
-      </c>
-      <c r="F3">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>223</v>
-      </c>
-      <c r="B4" t="s">
-        <v>230</v>
-      </c>
-      <c r="C4" t="s">
-        <v>231</v>
-      </c>
-      <c r="D4" t="s">
-        <v>232</v>
-      </c>
-      <c r="E4">
-        <v>3</v>
-      </c>
-      <c r="F4">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>223</v>
-      </c>
-      <c r="B5" t="s">
-        <v>233</v>
-      </c>
-      <c r="C5" t="s">
-        <v>234</v>
-      </c>
-      <c r="D5" t="s">
-        <v>235</v>
-      </c>
-      <c r="E5">
-        <v>2</v>
-      </c>
-      <c r="F5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>223</v>
-      </c>
-      <c r="B6" t="s">
-        <v>236</v>
-      </c>
-      <c r="C6" t="s">
-        <v>237</v>
-      </c>
-      <c r="D6" t="s">
-        <v>238</v>
-      </c>
-      <c r="E6">
-        <v>3</v>
-      </c>
-      <c r="F6">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>223</v>
-      </c>
-      <c r="B7" t="s">
-        <v>239</v>
-      </c>
-      <c r="C7" t="s">
-        <v>240</v>
-      </c>
-      <c r="D7" t="s">
-        <v>241</v>
-      </c>
-      <c r="E7">
-        <v>2</v>
-      </c>
-      <c r="F7">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>223</v>
-      </c>
-      <c r="B8" t="s">
-        <v>242</v>
-      </c>
-      <c r="C8" t="s">
-        <v>243</v>
-      </c>
-      <c r="D8" t="s">
-        <v>244</v>
-      </c>
-      <c r="E8">
-        <v>3</v>
-      </c>
-      <c r="F8">
-        <v>18</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>